--- a/src/assets/documents/FORMATO_MATERIALES.xlsx
+++ b/src/assets/documents/FORMATO_MATERIALES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aemo/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{298F3821-A318-A64C-BE47-CE72C4407532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750370C1-E7DA-324A-939E-ADE8ED18170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-41320" yWindow="500" windowWidth="25600" windowHeight="26700" xr2:uid="{C1CA46D1-D146-E345-A83F-B7A5E76EA8D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>UNIDAD DE MEDIDA</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>CÓDIGO PROVEEDOR</t>
-  </si>
-  <si>
-    <t>CÓDIGO INTERNO</t>
   </si>
   <si>
     <t>ÁREA</t>
@@ -120,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,13 +137,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,16 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -508,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC88010-3322-3F49-8713-7FC5D3489FD2}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,19 +503,18 @@
     <col min="1" max="1" width="56.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
     <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>15</v>
       </c>
@@ -542,195 +525,32 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="E15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="E16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -741,13 +561,13 @@
           <x14:formula1>
             <xm:f>AREAS!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1604</xm:sqref>
+          <xm:sqref>E59:E1552</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60E86B40-BDFF-634E-8E22-8FC48EF5CB24}">
           <x14:formula1>
             <xm:f>'UNIDADES DE MEDIDA'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B1604</xm:sqref>
+          <xm:sqref>B59:B1552</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/src/assets/documents/FORMATO_MATERIALES.xlsx
+++ b/src/assets/documents/FORMATO_MATERIALES.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aemo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aemo/Projects/bellarti-app/src/assets/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750370C1-E7DA-324A-939E-ADE8ED18170C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B5E881-5A51-E04E-B85F-AE2CD5F728B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41320" yWindow="500" windowWidth="25600" windowHeight="26700" xr2:uid="{C1CA46D1-D146-E345-A83F-B7A5E76EA8D7}"/>
+    <workbookView xWindow="-51200" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{C1CA46D1-D146-E345-A83F-B7A5E76EA8D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MATERIALES" sheetId="1" r:id="rId1"/>
-    <sheet name="AREAS" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="UNIDADES DE MEDIDA" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="VALORES PREDETERMINADOS" sheetId="4" r:id="rId2"/>
+    <sheet name="AREAS" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="UNIDADES DE MEDIDA" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>UNIDAD DE MEDIDA</t>
   </si>
@@ -83,9 +84,6 @@
     <t>PAR</t>
   </si>
   <si>
-    <t>NOMBRE / DESCRIPCIÓN</t>
-  </si>
-  <si>
     <t>CÓDIGO PROVEEDOR</t>
   </si>
   <si>
@@ -111,6 +109,108 @@
   </si>
   <si>
     <t>DIFERENCIA DE PRECIO</t>
+  </si>
+  <si>
+    <t>DIVISIÓN</t>
+  </si>
+  <si>
+    <t>MATERIAL SKU</t>
+  </si>
+  <si>
+    <t>ESPEC.1 SKU</t>
+  </si>
+  <si>
+    <t>ESPEC.2 SKU</t>
+  </si>
+  <si>
+    <t>ESPEC.3 SKU</t>
+  </si>
+  <si>
+    <t>ESPEC.4 SKU (LARGA)</t>
+  </si>
+  <si>
+    <t>ESPEC.5 SKU (LARGA)</t>
+  </si>
+  <si>
+    <t>REDONDEO AUTOMATIZADO (SE REQUIERE LA PRESENTACIÓN DEL MATERIAL)</t>
+  </si>
+  <si>
+    <t>DIVISIÓN DE MATERIALES</t>
+  </si>
+  <si>
+    <t>AREAS</t>
+  </si>
+  <si>
+    <t>REDONDEO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Acabado</t>
+  </si>
+  <si>
+    <t>Cantos</t>
+  </si>
+  <si>
+    <t>Cantos Blanco</t>
+  </si>
+  <si>
+    <t>Cantos Transparente</t>
+  </si>
+  <si>
+    <t>Cristal</t>
+  </si>
+  <si>
+    <t>Cubierta</t>
+  </si>
+  <si>
+    <t>Campana</t>
+  </si>
+  <si>
+    <t>Estufa</t>
+  </si>
+  <si>
+    <t>Horno</t>
+  </si>
+  <si>
+    <t>Parrilla</t>
+  </si>
+  <si>
+    <t>Tarja</t>
+  </si>
+  <si>
+    <t>Herraje</t>
+  </si>
+  <si>
+    <t>Maderas</t>
+  </si>
+  <si>
+    <t>Resurtido</t>
+  </si>
+  <si>
+    <t>Tornillería</t>
+  </si>
+  <si>
+    <t>Tableros</t>
+  </si>
+  <si>
+    <t>UNIDADES DE MEDIDA</t>
+  </si>
+  <si>
+    <t>HOJA</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>PZA</t>
+  </si>
+  <si>
+    <t>TUBO</t>
   </si>
 </sst>
 </file>
@@ -182,7 +282,345 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD9A9FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFA8"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC2C3"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7773"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7FCFF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF676FF"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -492,82 +930,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC88010-3322-3F49-8713-7FC5D3489FD2}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:S1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="S960" sqref="S960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="21.5" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
+      <c r="S1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E93506E2-F114-4047-9E63-6EB552B79026}">
           <x14:formula1>
             <xm:f>AREAS!$A$1:$A$2</xm:f>
           </x14:formula1>
-          <xm:sqref>E59:E1552</xm:sqref>
+          <xm:sqref>K1001:K1552</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60E86B40-BDFF-634E-8E22-8FC48EF5CB24}">
           <x14:formula1>
             <xm:f>'UNIDADES DE MEDIDA'!$A$1:$A$11</xm:f>
           </x14:formula1>
-          <xm:sqref>B59:B1552</xm:sqref>
+          <xm:sqref>H1001:H1552</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8705441A-CDE0-8344-8804-57303B2863D9}">
+          <x14:formula1>
+            <xm:f>'VALORES PREDETERMINADOS'!$B$2:$B$16</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3DEBC83A-3F92-6448-B0E1-BE382AAA9C3C}">
+          <x14:formula1>
+            <xm:f>'VALORES PREDETERMINADOS'!$A$2:$A$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A793 A795:A1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{314689A6-6210-B746-954D-D6540033753F}">
+          <x14:formula1>
+            <xm:f>'VALORES PREDETERMINADOS'!$C$2:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F70C1CB9-1F38-8542-A3E6-DBB9D4545E24}">
+          <x14:formula1>
+            <xm:f>'VALORES PREDETERMINADOS'!$D$2:$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>S2:S1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -576,6 +1063,177 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD8C4D2-B335-DB43-B8F9-F9A8C2586BDD}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8556392-BBC2-8D42-A43F-2E4B1796D206}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -603,7 +1261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CEBCEBF-EB6A-9B4B-8AF3-DCA760898747}">
   <dimension ref="A1:A11"/>
   <sheetViews>
